--- a/biology/Zoologie/Chamaesphecia_mysiniformis/Chamaesphecia_mysiniformis.xlsx
+++ b/biology/Zoologie/Chamaesphecia_mysiniformis/Chamaesphecia_mysiniformis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sésie de l'épiaire
-Chamaesphecia mysiniformis, qui a pour nom commun Sésie de l'épiaire[2], est une espèce de lépidoptères de la famille des Sesiidae[1].
+Chamaesphecia mysiniformis, qui a pour nom commun Sésie de l'épiaire, est une espèce de lépidoptères de la famille des Sesiidae.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les imagos ont une envergure de 11 à 24 mm, les femelles sont plus grands que les mâles[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les imagos ont une envergure de 11 à 24 mm, les femelles sont plus grands que les mâles. 
 Ils sont brun foncé, à part quelques marques jaunes sur le corps et quelques anneaux blancs sur l'abdomen. Ils ont une zone dégagée sur leurs ailes.
 </t>
         </is>
@@ -544,10 +558,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chamaesphecia mysiniformis est présent dans la péninsule ibérique, le sud de la France et le nord du Maroc[3].
-Il a été introduit dans l'État de Victoria, en Australie, en 1997, à partir d'individus espagnols[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chamaesphecia mysiniformis est présent dans la péninsule ibérique, le sud de la France et le nord du Maroc.
+Il a été introduit dans l'État de Victoria, en Australie, en 1997, à partir d'individus espagnols.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Parasitologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'insecte est un parasite des plantes Ballota hirsuta, Ballota nigra, Marrubium alysson (es), Marrubium leonuroides (de), Marrubium supinum, Marrubium vulgare, Sideritis, Stachys arvensis (de), Stachys germanica[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'insecte est un parasite des plantes Ballota hirsuta, Ballota nigra, Marrubium alysson (es), Marrubium leonuroides (de), Marrubium supinum, Marrubium vulgare, Sideritis, Stachys arvensis (de), Stachys germanica.
 </t>
         </is>
       </c>
@@ -607,9 +625,11 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chamaesphecia mysiniformis est un hétérocère[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chamaesphecia mysiniformis est un hétérocère.
 </t>
         </is>
       </c>
